--- a/src/test/java/TableData.xlsx
+++ b/src/test/java/TableData.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovana\IdeaProjects\ITBootcampFinaleProject\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E61B7C-8CCC-4ACE-B4FE-7DCA7323DE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAA3F9C-8061-499A-975D-755959BBD7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24650" yWindow="1190" windowWidth="17280" windowHeight="8960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
     <sheet name="Textbox" sheetId="2" r:id="rId2"/>
-    <sheet name="Users" sheetId="3" r:id="rId3"/>
+    <sheet name="Address" sheetId="6" r:id="rId3"/>
+    <sheet name="Email" sheetId="5" r:id="rId4"/>
+    <sheet name="Fullname" sheetId="4" r:id="rId5"/>
+    <sheet name="Users" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>HomeURL</t>
   </si>
@@ -140,15 +143,6 @@
     <t>Invalid Email</t>
   </si>
   <si>
-    <t>Invali Fullname</t>
-  </si>
-  <si>
-    <t>*****</t>
-  </si>
-  <si>
-    <t>12/12*</t>
-  </si>
-  <si>
     <t>aaaaaaaaa</t>
   </si>
   <si>
@@ -164,15 +158,9 @@
     <t>Invalid Address</t>
   </si>
   <si>
-    <t>///////</t>
-  </si>
-  <si>
     <t>aaaaaaa</t>
   </si>
   <si>
-    <t>brigade</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -194,24 +182,9 @@
     <t>Jovana</t>
   </si>
   <si>
-    <t>Nemanja</t>
-  </si>
-  <si>
-    <t>Nikola</t>
-  </si>
-  <si>
     <t>Djankovic</t>
   </si>
   <si>
-    <t>Glusica</t>
-  </si>
-  <si>
-    <t>nemanja@gmail.com</t>
-  </si>
-  <si>
-    <t>nikola@gmail.com</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
@@ -219,6 +192,63 @@
   </si>
   <si>
     <t>GF</t>
+  </si>
+  <si>
+    <t>Invalid Fullname</t>
+  </si>
+  <si>
+    <t>AAAAAAAAA</t>
+  </si>
+  <si>
+    <t>//////////</t>
+  </si>
+  <si>
+    <t>A/A/A</t>
+  </si>
+  <si>
+    <t>peroperic</t>
+  </si>
+  <si>
+    <t>a12546</t>
+  </si>
+  <si>
+    <t>Valid Address</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Invalid Current Address</t>
+  </si>
+  <si>
+    <t>Invalid Permanent Address</t>
+  </si>
+  <si>
+    <t>a2a</t>
+  </si>
+  <si>
+    <t>joavab.com</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>Pera</t>
+  </si>
+  <si>
+    <t>Peric</t>
+  </si>
+  <si>
+    <t>peric@gj.om</t>
+  </si>
+  <si>
+    <t>Miric</t>
+  </si>
+  <si>
+    <t>miric@go.vas</t>
+  </si>
+  <si>
+    <t>Mira</t>
   </si>
 </sst>
 </file>
@@ -263,9 +293,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -641,22 +672,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C003C-35D0-4203-B163-B038F1FA435B}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -670,16 +704,19 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
         <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -692,90 +729,39 @@
       <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2">
-        <v>12546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="F7" s="1"/>
     </row>
@@ -785,20 +771,174 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{0B3D48F7-5375-4313-A4E3-4171520E48CE}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{DCCC08C1-5A84-4EED-9B3A-3EAACCC04002}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{FDA3FA49-F290-4BF9-9DB1-245B4B4CDE65}"/>
-    <hyperlink ref="F2" r:id="rId5" xr:uid="{6683D728-679A-4D11-B21A-D41D3D3C2FC4}"/>
-    <hyperlink ref="F3" r:id="rId6" xr:uid="{DCB74B09-7469-45FB-BEFE-8A1B9B5177F3}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{6AD38A98-F9FF-46DF-8B10-C2D32E3FE722}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF67F2C-2C46-41A2-9E48-FB4DBCF33E65}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E22E1A6-C2A6-4A56-81C5-F5BA4D8302F4}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6683D728-679A-4D11-B21A-D41D3D3C2FC4}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{DCB74B09-7469-45FB-BEFE-8A1B9B5177F3}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{6AD38A98-F9FF-46DF-8B10-C2D32E3FE722}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED20179-9430-4BD2-AE0E-0C01DB0F3910}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF03BEF6-67E0-4776-A55A-EB8DBEF8347D}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,30 +950,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -842,50 +982,50 @@
         <v>27</v>
       </c>
       <c r="E2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>1000</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>1500</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/TableData.xlsx
+++ b/src/test/java/TableData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jovana\IdeaProjects\ITBootcampFinaleProject\src\test\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAA3F9C-8061-499A-975D-755959BBD7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34F76DF-FE49-4A43-AD43-5614040FE701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t>HomeURL</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>Mira</t>
+  </si>
+  <si>
+    <t>BrowaserWindowaPage</t>
+  </si>
+  <si>
+    <t>https://demoqa.com/sample</t>
   </si>
 </sst>
 </file>
@@ -578,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,9 +600,10 @@
     <col min="6" max="6" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +628,11 @@
       <c r="H1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,13 +657,16 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
@@ -937,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF03BEF6-67E0-4776-A55A-EB8DBEF8347D}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
